--- a/update_db/семантика.xlsx
+++ b/update_db/семантика.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист2!$4:$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист2!$A$4:$C$182</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="1631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="1634">
   <si>
     <t>анастасия православные ювелирные изделия</t>
   </si>
@@ -4916,6 +4916,15 @@
   </si>
   <si>
     <t>Православные бусины и шармы для браслетов</t>
+  </si>
+  <si>
+    <t>Православное серебряное кольцо с молитвой</t>
+  </si>
+  <si>
+    <t>Купить нательные образки и иконки святых</t>
+  </si>
+  <si>
+    <t>Купить образок божьей матери | Нательная икона Богородицы</t>
   </si>
 </sst>
 </file>
@@ -4966,7 +4975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -4991,6 +5000,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -22432,14 +22444,14 @@
     <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="4" count="0"/>
+          <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
     <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="3" count="0"/>
+          <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -22738,8 +22750,9 @@
   </sheetPr>
   <dimension ref="A1:C180"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22778,7 +22791,7 @@
       <c r="A5" s="6" t="s">
         <v>1411</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>1440</v>
       </c>
       <c r="C5" s="3">
@@ -22789,7 +22802,7 @@
       <c r="A6" s="8" t="s">
         <v>1412</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>1441</v>
       </c>
       <c r="C6" s="3">
@@ -22798,7 +22811,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="9"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>1443</v>
       </c>
       <c r="C7" s="3">
@@ -22807,7 +22820,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>1442</v>
       </c>
       <c r="C8" s="3">
@@ -22827,7 +22840,7 @@
       <c r="A10" s="8" t="s">
         <v>1414</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>1445</v>
       </c>
       <c r="C10" s="3">
@@ -22836,7 +22849,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>1446</v>
       </c>
       <c r="C11" s="3">
@@ -22845,7 +22858,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>1468</v>
       </c>
       <c r="C12" s="3">
@@ -22854,7 +22867,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>1507</v>
       </c>
       <c r="C13" s="3">
@@ -22863,7 +22876,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>1508</v>
       </c>
       <c r="C14" s="3">
@@ -22872,7 +22885,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9"/>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>1453</v>
       </c>
       <c r="C15" s="3">
@@ -22881,7 +22894,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>1510</v>
       </c>
       <c r="C16" s="3">
@@ -22890,7 +22903,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="11" t="s">
         <v>1454</v>
       </c>
       <c r="C17" s="3">
@@ -22899,7 +22912,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9"/>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="11" t="s">
         <v>1456</v>
       </c>
       <c r="C18" s="3">
@@ -22908,7 +22921,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9"/>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="11" t="s">
         <v>1457</v>
       </c>
       <c r="C19" s="3">
@@ -22917,7 +22930,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9"/>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="11" t="s">
         <v>1460</v>
       </c>
       <c r="C20" s="3">
@@ -22926,7 +22939,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9"/>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="11" t="s">
         <v>1520</v>
       </c>
       <c r="C21" s="3">
@@ -22935,7 +22948,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9"/>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>1509</v>
       </c>
       <c r="C22" s="3">
@@ -22944,7 +22957,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="9"/>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="11" t="s">
         <v>1511</v>
       </c>
       <c r="C23" s="3">
@@ -22953,7 +22966,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="11" t="s">
         <v>1466</v>
       </c>
       <c r="C24" s="3">
@@ -22962,7 +22975,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="9"/>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="11" t="s">
         <v>1447</v>
       </c>
       <c r="C25" s="3">
@@ -22971,7 +22984,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9"/>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="11" t="s">
         <v>1451</v>
       </c>
       <c r="C26" s="3">
@@ -22980,7 +22993,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9"/>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="11" t="s">
         <v>1455</v>
       </c>
       <c r="C27" s="3">
@@ -22989,7 +23002,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9"/>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="11" t="s">
         <v>1450</v>
       </c>
       <c r="C28" s="3">
@@ -22998,7 +23011,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="9"/>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="11" t="s">
         <v>1448</v>
       </c>
       <c r="C29" s="3">
@@ -23007,7 +23020,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="9"/>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="11" t="s">
         <v>1462</v>
       </c>
       <c r="C30" s="3">
@@ -23016,7 +23029,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="9"/>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="11" t="s">
         <v>1449</v>
       </c>
       <c r="C31" s="3">
@@ -23025,7 +23038,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="9"/>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="11" t="s">
         <v>1514</v>
       </c>
       <c r="C32" s="3">
@@ -23034,7 +23047,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="9"/>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="11" t="s">
         <v>1458</v>
       </c>
       <c r="C33" s="3">
@@ -23043,7 +23056,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="9"/>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="11" t="s">
         <v>1516</v>
       </c>
       <c r="C34" s="3">
@@ -23052,7 +23065,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="9"/>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="11" t="s">
         <v>1469</v>
       </c>
       <c r="C35" s="3">
@@ -23061,7 +23074,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="9"/>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="11" t="s">
         <v>1459</v>
       </c>
       <c r="C36" s="3">
@@ -23070,7 +23083,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="9"/>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="11" t="s">
         <v>1464</v>
       </c>
       <c r="C37" s="3">
@@ -23079,7 +23092,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9"/>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="11" t="s">
         <v>1467</v>
       </c>
       <c r="C38" s="3">
@@ -23088,7 +23101,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9"/>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="11" t="s">
         <v>1444</v>
       </c>
       <c r="C39" s="3">
@@ -23097,7 +23110,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9"/>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="11" t="s">
         <v>1463</v>
       </c>
       <c r="C40" s="3">
@@ -23117,7 +23130,7 @@
       <c r="A42" s="8" t="s">
         <v>1415</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="11" t="s">
         <v>1473</v>
       </c>
       <c r="C42" s="3">
@@ -23126,7 +23139,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="9"/>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="11" t="s">
         <v>1474</v>
       </c>
       <c r="C43" s="3">
@@ -23135,7 +23148,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9"/>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="11" t="s">
         <v>1441</v>
       </c>
       <c r="C44" s="3">
@@ -23144,7 +23157,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="9"/>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="11" t="s">
         <v>1465</v>
       </c>
       <c r="C45" s="3">
@@ -23153,7 +23166,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="9"/>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="11" t="s">
         <v>1476</v>
       </c>
       <c r="C46" s="3">
@@ -23162,7 +23175,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="9"/>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="11" t="s">
         <v>1475</v>
       </c>
       <c r="C47" s="3">
@@ -23171,7 +23184,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="9"/>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="11" t="s">
         <v>1628</v>
       </c>
       <c r="C48" s="3">
@@ -23182,7 +23195,7 @@
       <c r="A49" s="6" t="s">
         <v>1416</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="11" t="s">
         <v>1472</v>
       </c>
       <c r="C49" s="3">
@@ -23193,7 +23206,7 @@
       <c r="A50" s="6" t="s">
         <v>1483</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="11" t="s">
         <v>1521</v>
       </c>
       <c r="C50" s="3">
@@ -23204,7 +23217,7 @@
       <c r="A51" s="6" t="s">
         <v>1420</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="11" t="s">
         <v>1480</v>
       </c>
       <c r="C51" s="3">
@@ -23224,7 +23237,7 @@
       <c r="A53" s="8" t="s">
         <v>1425</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="11" t="s">
         <v>1433</v>
       </c>
       <c r="C53" s="3">
@@ -23233,7 +23246,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9"/>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="11" t="s">
         <v>1437</v>
       </c>
       <c r="C54" s="3">
@@ -23242,7 +23255,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9"/>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="11" t="s">
         <v>1436</v>
       </c>
       <c r="C55" s="3">
@@ -23251,7 +23264,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="9"/>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="11" t="s">
         <v>1438</v>
       </c>
       <c r="C56" s="3">
@@ -23260,7 +23273,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9"/>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="11" t="s">
         <v>1435</v>
       </c>
       <c r="C57" s="3">
@@ -23269,7 +23282,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9"/>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="11" t="s">
         <v>1434</v>
       </c>
       <c r="C58" s="3">
@@ -23280,7 +23293,7 @@
       <c r="A59" s="6" t="s">
         <v>1423</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="11" t="s">
         <v>1481</v>
       </c>
       <c r="C59" s="3">
@@ -23291,7 +23304,7 @@
       <c r="A60" s="8" t="s">
         <v>1421</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="11" t="s">
         <v>1487</v>
       </c>
       <c r="C60" s="3">
@@ -23300,7 +23313,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9"/>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="11" t="s">
         <v>1492</v>
       </c>
       <c r="C61" s="3">
@@ -23309,7 +23322,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="9"/>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="11" t="s">
         <v>1488</v>
       </c>
       <c r="C62" s="3">
@@ -23318,7 +23331,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="9"/>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="11" t="s">
         <v>1497</v>
       </c>
       <c r="C63" s="3">
@@ -23327,7 +23340,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="9"/>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="11" t="s">
         <v>1499</v>
       </c>
       <c r="C64" s="3">
@@ -23336,7 +23349,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="9"/>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="11" t="s">
         <v>1500</v>
       </c>
       <c r="C65" s="3">
@@ -23345,7 +23358,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="9"/>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="11" t="s">
         <v>1489</v>
       </c>
       <c r="C66" s="3">
@@ -23354,7 +23367,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="9"/>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="11" t="s">
         <v>1485</v>
       </c>
       <c r="C67" s="3">
@@ -23363,7 +23376,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="9"/>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="11" t="s">
         <v>1502</v>
       </c>
       <c r="C68" s="3">
@@ -23372,7 +23385,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="9"/>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="11" t="s">
         <v>1486</v>
       </c>
       <c r="C69" s="3">
@@ -23381,7 +23394,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="9"/>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="11" t="s">
         <v>1503</v>
       </c>
       <c r="C70" s="3">
@@ -23390,7 +23403,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="9"/>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="11" t="s">
         <v>1490</v>
       </c>
       <c r="C71" s="3">
@@ -23399,7 +23412,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="9"/>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="11" t="s">
         <v>1484</v>
       </c>
       <c r="C72" s="3">
@@ -23408,7 +23421,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="9"/>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="11" t="s">
         <v>1504</v>
       </c>
       <c r="C73" s="3">
@@ -23417,7 +23430,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="9"/>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="11" t="s">
         <v>1498</v>
       </c>
       <c r="C74" s="3">
@@ -23426,7 +23439,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="9"/>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="11" t="s">
         <v>1491</v>
       </c>
       <c r="C75" s="3">
@@ -23435,7 +23448,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="9"/>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="11" t="s">
         <v>1501</v>
       </c>
       <c r="C76" s="3">
@@ -23444,7 +23457,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="9"/>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="11" t="s">
         <v>1494</v>
       </c>
       <c r="C77" s="3">
@@ -23453,7 +23466,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="9"/>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="11" t="s">
         <v>1482</v>
       </c>
       <c r="C78" s="3">
@@ -23462,7 +23475,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="9"/>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="11" t="s">
         <v>1495</v>
       </c>
       <c r="C79" s="3">
@@ -23471,7 +23484,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="9"/>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="11" t="s">
         <v>1496</v>
       </c>
       <c r="C80" s="3">
@@ -23480,7 +23493,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="9"/>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="11" t="s">
         <v>1493</v>
       </c>
       <c r="C81" s="3">
@@ -23491,7 +23504,7 @@
       <c r="A82" s="8" t="s">
         <v>1522</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="11" t="s">
         <v>1575</v>
       </c>
       <c r="C82" s="3">
@@ -23500,7 +23513,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="9"/>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="11" t="s">
         <v>1523</v>
       </c>
       <c r="C83" s="3">
@@ -23509,7 +23522,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="9"/>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="11" t="s">
         <v>1538</v>
       </c>
       <c r="C84" s="3">
@@ -23518,7 +23531,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="9"/>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="11" t="s">
         <v>1539</v>
       </c>
       <c r="C85" s="3">
@@ -23527,7 +23540,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="9"/>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="11" t="s">
         <v>1533</v>
       </c>
       <c r="C86" s="3">
@@ -23536,7 +23549,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="9"/>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="11" t="s">
         <v>1545</v>
       </c>
       <c r="C87" s="3">
@@ -23545,7 +23558,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="9"/>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="11" t="s">
         <v>1526</v>
       </c>
       <c r="C88" s="3">
@@ -23554,7 +23567,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="9"/>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="11" t="s">
         <v>1531</v>
       </c>
       <c r="C89" s="3">
@@ -23563,7 +23576,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="9"/>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="11" t="s">
         <v>1527</v>
       </c>
       <c r="C90" s="3">
@@ -23572,7 +23585,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="9"/>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="11" t="s">
         <v>1543</v>
       </c>
       <c r="C91" s="3">
@@ -23581,7 +23594,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="9"/>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="11" t="s">
         <v>1534</v>
       </c>
       <c r="C92" s="3">
@@ -23590,7 +23603,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="9"/>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="11" t="s">
         <v>1524</v>
       </c>
       <c r="C93" s="3">
@@ -23599,7 +23612,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="9"/>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="11" t="s">
         <v>1542</v>
       </c>
       <c r="C94" s="3">
@@ -23608,7 +23621,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="9"/>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="11" t="s">
         <v>1536</v>
       </c>
       <c r="C95" s="3">
@@ -23617,7 +23630,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="9"/>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="11" t="s">
         <v>1540</v>
       </c>
       <c r="C96" s="3">
@@ -23626,7 +23639,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="9"/>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="11" t="s">
         <v>1535</v>
       </c>
       <c r="C97" s="3">
@@ -23635,7 +23648,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="9"/>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="11" t="s">
         <v>1525</v>
       </c>
       <c r="C98" s="3">
@@ -23644,7 +23657,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="9"/>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="11" t="s">
         <v>1532</v>
       </c>
       <c r="C99" s="3">
@@ -23653,7 +23666,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="9"/>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="11" t="s">
         <v>1537</v>
       </c>
       <c r="C100" s="3">
@@ -23662,7 +23675,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="9"/>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="11" t="s">
         <v>1546</v>
       </c>
       <c r="C101" s="3">
@@ -23671,7 +23684,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="9"/>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="11" t="s">
         <v>1544</v>
       </c>
       <c r="C102" s="3">
@@ -23680,7 +23693,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="9"/>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="11" t="s">
         <v>1547</v>
       </c>
       <c r="C103" s="3">
@@ -23689,7 +23702,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="9"/>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="11" t="s">
         <v>1529</v>
       </c>
       <c r="C104" s="3">
@@ -23698,7 +23711,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="9"/>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="11" t="s">
         <v>1528</v>
       </c>
       <c r="C105" s="3">
@@ -23707,7 +23720,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="9"/>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="11" t="s">
         <v>1530</v>
       </c>
       <c r="C106" s="3">
@@ -23718,7 +23731,7 @@
       <c r="A107" s="6" t="s">
         <v>1424</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="11" t="s">
         <v>1548</v>
       </c>
       <c r="C107" s="3">
@@ -23729,7 +23742,7 @@
       <c r="A108" s="8" t="s">
         <v>1624</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="11" t="s">
         <v>1549</v>
       </c>
       <c r="C108" s="3">
@@ -23738,7 +23751,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="9"/>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="11" t="s">
         <v>1551</v>
       </c>
       <c r="C109" s="3">
@@ -23747,7 +23760,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="9"/>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="11" t="s">
         <v>1550</v>
       </c>
       <c r="C110" s="3">
@@ -23756,7 +23769,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="9"/>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="11" t="s">
         <v>1552</v>
       </c>
       <c r="C111" s="3">
@@ -23767,7 +23780,7 @@
       <c r="A112" s="8" t="s">
         <v>1413</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="11" t="s">
         <v>1595</v>
       </c>
       <c r="C112" s="3">
@@ -23776,7 +23789,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="9"/>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="11" t="s">
         <v>1612</v>
       </c>
       <c r="C113" s="3">
@@ -23785,7 +23798,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="9"/>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="11" t="s">
         <v>1609</v>
       </c>
       <c r="C114" s="3">
@@ -23794,7 +23807,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="9"/>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="11" t="s">
         <v>1613</v>
       </c>
       <c r="C115" s="3">
@@ -23803,7 +23816,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="9"/>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="11" t="s">
         <v>1593</v>
       </c>
       <c r="C116" s="3">
@@ -23812,7 +23825,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="9"/>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="11" t="s">
         <v>1606</v>
       </c>
       <c r="C117" s="3">
@@ -23821,7 +23834,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="9"/>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="11" t="s">
         <v>1596</v>
       </c>
       <c r="C118" s="3">
@@ -23830,7 +23843,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="9"/>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="11" t="s">
         <v>1594</v>
       </c>
       <c r="C119" s="3">
@@ -23839,7 +23852,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="9"/>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="11" t="s">
         <v>1614</v>
       </c>
       <c r="C120" s="3">
@@ -23848,7 +23861,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="9"/>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="11" t="s">
         <v>1586</v>
       </c>
       <c r="C121" s="3">
@@ -23857,7 +23870,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="9"/>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="11" t="s">
         <v>1618</v>
       </c>
       <c r="C122" s="3">
@@ -23866,7 +23879,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="9"/>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="11" t="s">
         <v>1597</v>
       </c>
       <c r="C123" s="3">
@@ -23875,7 +23888,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="9"/>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="11" t="s">
         <v>1581</v>
       </c>
       <c r="C124" s="3">
@@ -23884,7 +23897,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="9"/>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="11" t="s">
         <v>1587</v>
       </c>
       <c r="C125" s="3">
@@ -23893,7 +23906,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="9"/>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="11" t="s">
         <v>1588</v>
       </c>
       <c r="C126" s="3">
@@ -23902,7 +23915,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="9"/>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="11" t="s">
         <v>1623</v>
       </c>
       <c r="C127" s="3">
@@ -23911,7 +23924,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="9"/>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="11" t="s">
         <v>1583</v>
       </c>
       <c r="C128" s="3">
@@ -23920,7 +23933,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="9"/>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="11" t="s">
         <v>1584</v>
       </c>
       <c r="C129" s="3">
@@ -23929,7 +23942,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="9"/>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="11" t="s">
         <v>1582</v>
       </c>
       <c r="C130" s="3">
@@ -23938,7 +23951,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="9"/>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="11" t="s">
         <v>1591</v>
       </c>
       <c r="C131" s="3">
@@ -23947,7 +23960,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="9"/>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="11" t="s">
         <v>1592</v>
       </c>
       <c r="C132" s="3">
@@ -23956,7 +23969,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="9"/>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="11" t="s">
         <v>1590</v>
       </c>
       <c r="C133" s="3">
@@ -23965,7 +23978,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="9"/>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="11" t="s">
         <v>1589</v>
       </c>
       <c r="C134" s="3">
@@ -23974,7 +23987,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="9"/>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="11" t="s">
         <v>1603</v>
       </c>
       <c r="C135" s="3">
@@ -23983,7 +23996,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="9"/>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="11" t="s">
         <v>1598</v>
       </c>
       <c r="C136" s="3">
@@ -23992,7 +24005,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="9"/>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="11" t="s">
         <v>1604</v>
       </c>
       <c r="C137" s="3">
@@ -24001,7 +24014,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="9"/>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="11" t="s">
         <v>1599</v>
       </c>
       <c r="C138" s="3">
@@ -24010,7 +24023,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="9"/>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="11" t="s">
         <v>1620</v>
       </c>
       <c r="C139" s="3">
@@ -24019,7 +24032,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="9"/>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="11" t="s">
         <v>1607</v>
       </c>
       <c r="C140" s="3">
@@ -24028,7 +24041,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="9"/>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="11" t="s">
         <v>1605</v>
       </c>
       <c r="C141" s="3">
@@ -24037,7 +24050,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="9"/>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="11" t="s">
         <v>1622</v>
       </c>
       <c r="C142" s="3">
@@ -24046,7 +24059,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="9"/>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="11" t="s">
         <v>1576</v>
       </c>
       <c r="C143" s="3">
@@ -24055,7 +24068,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="9"/>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="11" t="s">
         <v>1577</v>
       </c>
       <c r="C144" s="3">
@@ -24064,7 +24077,7 @@
     </row>
     <row r="145" spans="1:3" ht="30">
       <c r="A145" s="9"/>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="11" t="s">
         <v>1578</v>
       </c>
       <c r="C145" s="3">
@@ -24073,7 +24086,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="9"/>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="11" t="s">
         <v>1580</v>
       </c>
       <c r="C146" s="3">
@@ -24082,7 +24095,7 @@
     </row>
     <row r="147" spans="1:3" ht="15" customHeight="1">
       <c r="A147" s="9"/>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="11" t="s">
         <v>1579</v>
       </c>
       <c r="C147" s="3">
@@ -24091,7 +24104,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="9"/>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="11" t="s">
         <v>1615</v>
       </c>
       <c r="C148" s="3">
@@ -24100,7 +24113,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="9"/>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="11" t="s">
         <v>1585</v>
       </c>
       <c r="C149" s="3">
@@ -24109,7 +24122,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="9"/>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="11" t="s">
         <v>1619</v>
       </c>
       <c r="C150" s="3">
@@ -24118,7 +24131,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="9"/>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="11" t="s">
         <v>1601</v>
       </c>
       <c r="C151" s="3">
@@ -24127,7 +24140,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="9"/>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="11" t="s">
         <v>1610</v>
       </c>
       <c r="C152" s="3">
@@ -24136,7 +24149,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="9"/>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="11" t="s">
         <v>1621</v>
       </c>
       <c r="C153" s="3">
@@ -24145,7 +24158,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="9"/>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="11" t="s">
         <v>1602</v>
       </c>
       <c r="C154" s="3">
@@ -24154,7 +24167,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="9"/>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="11" t="s">
         <v>1616</v>
       </c>
       <c r="C155" s="3">
@@ -24163,7 +24176,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="9"/>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="11" t="s">
         <v>1608</v>
       </c>
       <c r="C156" s="3">
@@ -24172,7 +24185,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="9"/>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="11" t="s">
         <v>1611</v>
       </c>
       <c r="C157" s="3">
@@ -24181,7 +24194,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="9"/>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="11" t="s">
         <v>1600</v>
       </c>
       <c r="C158" s="3">
@@ -24190,7 +24203,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="9"/>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="11" t="s">
         <v>1617</v>
       </c>
       <c r="C159" s="3">
@@ -24210,7 +24223,7 @@
       <c r="A161" s="8" t="s">
         <v>1417</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="11" t="s">
         <v>1573</v>
       </c>
       <c r="C161" s="3">
@@ -24219,7 +24232,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="9"/>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="11" t="s">
         <v>1554</v>
       </c>
       <c r="C162" s="3">
@@ -24228,7 +24241,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="9"/>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="11" t="s">
         <v>1557</v>
       </c>
       <c r="C163" s="3">
@@ -24237,7 +24250,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="9"/>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="11" t="s">
         <v>1555</v>
       </c>
       <c r="C164" s="3">
@@ -24246,7 +24259,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="9"/>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="11" t="s">
         <v>1565</v>
       </c>
       <c r="C165" s="3">
@@ -24255,7 +24268,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="9"/>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="11" t="s">
         <v>1558</v>
       </c>
       <c r="C166" s="3">
@@ -24264,7 +24277,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="9"/>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="11" t="s">
         <v>1566</v>
       </c>
       <c r="C167" s="3">
@@ -24273,7 +24286,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="9"/>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="11" t="s">
         <v>1559</v>
       </c>
       <c r="C168" s="3">
@@ -24282,7 +24295,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="9"/>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="11" t="s">
         <v>1568</v>
       </c>
       <c r="C169" s="3">
@@ -24291,7 +24304,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="9"/>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="11" t="s">
         <v>1574</v>
       </c>
       <c r="C170" s="3">
@@ -24300,7 +24313,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="9"/>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="11" t="s">
         <v>1562</v>
       </c>
       <c r="C171" s="3">
@@ -24309,7 +24322,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="9"/>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="11" t="s">
         <v>1563</v>
       </c>
       <c r="C172" s="3">
@@ -24318,7 +24331,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="9"/>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="11" t="s">
         <v>1569</v>
       </c>
       <c r="C173" s="3">
@@ -24327,7 +24340,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="9"/>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="11" t="s">
         <v>1556</v>
       </c>
       <c r="C174" s="3">
@@ -24336,7 +24349,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="9"/>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="11" t="s">
         <v>1567</v>
       </c>
       <c r="C175" s="3">
@@ -24345,7 +24358,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="9"/>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="11" t="s">
         <v>1560</v>
       </c>
       <c r="C176" s="3">
@@ -24354,7 +24367,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="9"/>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="11" t="s">
         <v>1571</v>
       </c>
       <c r="C177" s="3">
@@ -24363,7 +24376,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="9"/>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="11" t="s">
         <v>1561</v>
       </c>
       <c r="C178" s="3">
@@ -24374,7 +24387,7 @@
       <c r="A179" s="6" t="s">
         <v>1427</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="11" t="s">
         <v>1553</v>
       </c>
       <c r="C179" s="3">
@@ -24420,11 +24433,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I1408"/>
+  <dimension ref="A1:I1411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1106" sqref="E1106"/>
+      <selection pane="bottomLeft" activeCell="D1418" sqref="D1418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24764,16 +24777,16 @@
     </row>
     <row r="22" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>1359</v>
+        <v>646</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>1421</v>
       </c>
       <c r="E22" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -25619,7 +25632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="80" spans="1:9" ht="15" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>51</v>
       </c>
@@ -25630,13 +25643,13 @@
         <v>1413</v>
       </c>
       <c r="E80" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="81" spans="1:9" ht="15" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>52</v>
       </c>
@@ -25647,7 +25660,7 @@
         <v>1413</v>
       </c>
       <c r="E81" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -26248,16 +26261,16 @@
     </row>
     <row r="119" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>90</v>
+        <v>939</v>
       </c>
       <c r="B119">
-        <v>118</v>
+        <v>338</v>
       </c>
       <c r="D119" t="s">
         <v>1421</v>
       </c>
       <c r="E119" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -26265,16 +26278,16 @@
     </row>
     <row r="120" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>91</v>
+        <v>647</v>
       </c>
       <c r="B120">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
         <v>1421</v>
       </c>
       <c r="E120" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -26352,16 +26365,16 @@
     </row>
     <row r="126" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>97</v>
+        <v>474</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D126" t="s">
         <v>1421</v>
       </c>
       <c r="E126" t="s">
-        <v>1500</v>
+        <v>1488</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -27685,16 +27698,16 @@
     </row>
     <row r="209" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>174</v>
+        <v>938</v>
       </c>
       <c r="B209">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D209" t="s">
         <v>1421</v>
       </c>
       <c r="E209" t="s">
-        <v>1489</v>
+        <v>1497</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -29018,7 +29031,7 @@
         <v>1413</v>
       </c>
       <c r="E298" t="s">
-        <v>1602</v>
+        <v>1632</v>
       </c>
       <c r="I298">
         <v>1</v>
@@ -29424,16 +29437,16 @@
     </row>
     <row r="324" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A324" s="1" t="s">
-        <v>288</v>
+        <v>1218</v>
       </c>
       <c r="B324">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D324" t="s">
         <v>1421</v>
       </c>
       <c r="E324" t="s">
-        <v>1485</v>
+        <v>1497</v>
       </c>
       <c r="I324">
         <v>1</v>
@@ -31881,16 +31894,16 @@
     </row>
     <row r="483" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A483" s="1" t="s">
-        <v>447</v>
+        <v>1219</v>
       </c>
       <c r="B483">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="D483" t="s">
         <v>1421</v>
       </c>
       <c r="E483" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="I483">
         <v>1</v>
@@ -31898,16 +31911,16 @@
     </row>
     <row r="484" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A484" s="1" t="s">
-        <v>448</v>
+        <v>90</v>
       </c>
       <c r="B484">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D484" t="s">
         <v>1421</v>
       </c>
       <c r="E484" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I484">
         <v>1</v>
@@ -31915,16 +31928,16 @@
     </row>
     <row r="485" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A485" s="1" t="s">
-        <v>449</v>
+        <v>91</v>
       </c>
       <c r="B485">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D485" t="s">
         <v>1421</v>
       </c>
       <c r="E485" t="s">
-        <v>1490</v>
+        <v>1499</v>
       </c>
       <c r="I485">
         <v>1</v>
@@ -31949,16 +31962,16 @@
     </row>
     <row r="487" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A487" s="1" t="s">
-        <v>451</v>
+        <v>555</v>
       </c>
       <c r="B487">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D487" t="s">
         <v>1421</v>
       </c>
       <c r="E487" t="s">
-        <v>1490</v>
+        <v>1499</v>
       </c>
       <c r="I487">
         <v>1</v>
@@ -31966,16 +31979,16 @@
     </row>
     <row r="488" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A488" s="1" t="s">
-        <v>452</v>
+        <v>97</v>
       </c>
       <c r="B488">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D488" t="s">
         <v>1421</v>
       </c>
       <c r="E488" t="s">
-        <v>1485</v>
+        <v>1500</v>
       </c>
       <c r="I488">
         <v>1</v>
@@ -31983,16 +31996,16 @@
     </row>
     <row r="489" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A489" s="1" t="s">
-        <v>453</v>
+        <v>174</v>
       </c>
       <c r="B489">
-        <v>2238</v>
+        <v>66</v>
       </c>
       <c r="D489" t="s">
         <v>1421</v>
       </c>
       <c r="E489" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="I489">
         <v>1</v>
@@ -32000,16 +32013,16 @@
     </row>
     <row r="490" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A490" s="1" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="B490">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="D490" t="s">
         <v>1421</v>
       </c>
       <c r="E490" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="I490">
         <v>1</v>
@@ -32017,16 +32030,16 @@
     </row>
     <row r="491" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A491" s="1" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="B491">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D491" t="s">
         <v>1421</v>
       </c>
       <c r="E491" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="I491">
         <v>1</v>
@@ -32034,10 +32047,10 @@
     </row>
     <row r="492" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A492" s="1" t="s">
-        <v>456</v>
+        <v>1359</v>
       </c>
       <c r="B492">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D492" t="s">
         <v>1421</v>
@@ -32051,16 +32064,16 @@
     </row>
     <row r="493" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A493" s="1" t="s">
-        <v>457</v>
+        <v>288</v>
       </c>
       <c r="B493">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D493" t="s">
         <v>1421</v>
       </c>
       <c r="E493" t="s">
-        <v>1503</v>
+        <v>1485</v>
       </c>
       <c r="I493">
         <v>1</v>
@@ -32082,10 +32095,10 @@
     </row>
     <row r="495" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A495" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B495">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D495" t="s">
         <v>1421</v>
@@ -32099,10 +32112,10 @@
     </row>
     <row r="496" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A496" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B496">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D496" t="s">
         <v>1421</v>
@@ -32116,16 +32129,16 @@
     </row>
     <row r="497" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A497" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B497">
-        <v>12</v>
+        <v>2238</v>
       </c>
       <c r="D497" t="s">
         <v>1421</v>
       </c>
       <c r="E497" t="s">
-        <v>1504</v>
+        <v>1485</v>
       </c>
       <c r="I497">
         <v>1</v>
@@ -32133,10 +32146,10 @@
     </row>
     <row r="498" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A498" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B498">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D498" t="s">
         <v>1421</v>
@@ -32150,16 +32163,16 @@
     </row>
     <row r="499" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A499" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B499">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D499" t="s">
         <v>1421</v>
       </c>
       <c r="E499" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="I499">
         <v>1</v>
@@ -32167,16 +32180,16 @@
     </row>
     <row r="500" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A500" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B500">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="D500" t="s">
         <v>1421</v>
       </c>
       <c r="E500" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="I500">
         <v>1</v>
@@ -32184,16 +32197,16 @@
     </row>
     <row r="501" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A501" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B501">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="D501" t="s">
         <v>1421</v>
       </c>
       <c r="E501" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="I501">
         <v>1</v>
@@ -32201,16 +32214,16 @@
     </row>
     <row r="502" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A502" s="1" t="s">
-        <v>466</v>
+        <v>10</v>
       </c>
       <c r="B502">
-        <v>53</v>
+        <v>2913</v>
       </c>
       <c r="D502" t="s">
         <v>1421</v>
       </c>
       <c r="E502" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="I502">
         <v>1</v>
@@ -32218,16 +32231,16 @@
     </row>
     <row r="503" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A503" s="1" t="s">
-        <v>467</v>
+        <v>605</v>
       </c>
       <c r="B503">
-        <v>28</v>
+        <v>615</v>
       </c>
       <c r="D503" t="s">
         <v>1421</v>
       </c>
       <c r="E503" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="I503">
         <v>1</v>
@@ -32235,16 +32248,16 @@
     </row>
     <row r="504" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A504" s="1" t="s">
-        <v>468</v>
+        <v>607</v>
       </c>
       <c r="B504">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="D504" t="s">
         <v>1421</v>
       </c>
       <c r="E504" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="I504">
         <v>1</v>
@@ -32266,16 +32279,16 @@
     </row>
     <row r="506" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A506" s="1" t="s">
-        <v>470</v>
+        <v>966</v>
       </c>
       <c r="B506">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="D506" t="s">
         <v>1421</v>
       </c>
       <c r="E506" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="I506">
         <v>1</v>
@@ -32300,16 +32313,16 @@
     </row>
     <row r="508" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A508" s="1" t="s">
-        <v>472</v>
+        <v>1251</v>
       </c>
       <c r="B508">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D508" t="s">
         <v>1421</v>
       </c>
       <c r="E508" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="I508">
         <v>1</v>
@@ -32317,10 +32330,10 @@
     </row>
     <row r="509" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A509" s="1" t="s">
-        <v>10</v>
+        <v>1275</v>
       </c>
       <c r="B509">
-        <v>2913</v>
+        <v>9</v>
       </c>
       <c r="D509" t="s">
         <v>1421</v>
@@ -32334,16 +32347,16 @@
     </row>
     <row r="510" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A510" s="1" t="s">
-        <v>473</v>
+        <v>1301</v>
       </c>
       <c r="B510">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D510" t="s">
         <v>1421</v>
       </c>
       <c r="E510" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I510">
         <v>1</v>
@@ -32351,16 +32364,16 @@
     </row>
     <row r="511" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A511" s="1" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="B511">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D511" t="s">
         <v>1421</v>
       </c>
       <c r="E511" t="s">
-        <v>1488</v>
+        <v>1502</v>
       </c>
       <c r="I511">
         <v>1</v>
@@ -32368,16 +32381,16 @@
     </row>
     <row r="512" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A512" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B512">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D512" t="s">
         <v>1421</v>
       </c>
       <c r="E512" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="I512">
         <v>1</v>
@@ -32385,16 +32398,16 @@
     </row>
     <row r="513" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A513" s="1" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="B513">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D513" t="s">
         <v>1421</v>
       </c>
       <c r="E513" t="s">
-        <v>1490</v>
+        <v>1503</v>
       </c>
       <c r="I513">
         <v>1</v>
@@ -32402,16 +32415,16 @@
     </row>
     <row r="514" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A514" s="1" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="B514">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D514" t="s">
         <v>1421</v>
       </c>
       <c r="E514" t="s">
-        <v>1489</v>
+        <v>1631</v>
       </c>
       <c r="I514">
         <v>1</v>
@@ -33561,16 +33574,16 @@
     </row>
     <row r="585" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A585" s="1" t="s">
-        <v>548</v>
+        <v>451</v>
       </c>
       <c r="B585">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D585" t="s">
         <v>1421</v>
       </c>
       <c r="E585" t="s">
-        <v>1490</v>
+        <v>1631</v>
       </c>
       <c r="I585">
         <v>1</v>
@@ -33674,16 +33687,16 @@
     </row>
     <row r="592" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A592" s="1" t="s">
-        <v>555</v>
+        <v>468</v>
       </c>
       <c r="B592">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="D592" t="s">
         <v>1421</v>
       </c>
       <c r="E592" t="s">
-        <v>1499</v>
+        <v>1631</v>
       </c>
       <c r="I592">
         <v>1</v>
@@ -33922,7 +33935,7 @@
         <v>1413</v>
       </c>
       <c r="E608" t="s">
-        <v>1602</v>
+        <v>1632</v>
       </c>
       <c r="I608">
         <v>1</v>
@@ -34473,16 +34486,16 @@
     </row>
     <row r="642" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A642" s="1" t="s">
-        <v>605</v>
+        <v>476</v>
       </c>
       <c r="B642">
-        <v>615</v>
+        <v>82</v>
       </c>
       <c r="D642" t="s">
         <v>1421</v>
       </c>
       <c r="E642" t="s">
-        <v>1485</v>
+        <v>1631</v>
       </c>
       <c r="I642">
         <v>1</v>
@@ -34490,16 +34503,16 @@
     </row>
     <row r="643" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A643" s="1" t="s">
-        <v>606</v>
+        <v>548</v>
       </c>
       <c r="B643">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D643" t="s">
         <v>1421</v>
       </c>
       <c r="E643" t="s">
-        <v>1491</v>
+        <v>1631</v>
       </c>
       <c r="I643">
         <v>1</v>
@@ -34507,16 +34520,16 @@
     </row>
     <row r="644" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A644" s="1" t="s">
-        <v>607</v>
+        <v>968</v>
       </c>
       <c r="B644">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D644" t="s">
         <v>1421</v>
       </c>
       <c r="E644" t="s">
-        <v>1485</v>
+        <v>1631</v>
       </c>
       <c r="I644">
         <v>1</v>
@@ -34932,7 +34945,7 @@
         <v>1413</v>
       </c>
       <c r="E669" t="s">
-        <v>1602</v>
+        <v>1632</v>
       </c>
       <c r="I669">
         <v>1</v>
@@ -35017,7 +35030,7 @@
         <v>1413</v>
       </c>
       <c r="E674" t="s">
-        <v>1602</v>
+        <v>1632</v>
       </c>
       <c r="I674">
         <v>1</v>
@@ -35057,7 +35070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="677" spans="1:9" ht="15" customHeight="1">
       <c r="A677" s="1" t="s">
         <v>640</v>
       </c>
@@ -35068,7 +35081,7 @@
         <v>1413</v>
       </c>
       <c r="E677" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I677">
         <v>1</v>
@@ -35158,16 +35171,16 @@
     </row>
     <row r="683" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A683" s="1" t="s">
-        <v>646</v>
+        <v>1152</v>
       </c>
       <c r="B683">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="D683" t="s">
         <v>1421</v>
       </c>
       <c r="E683" t="s">
-        <v>1487</v>
+        <v>1631</v>
       </c>
       <c r="I683">
         <v>1</v>
@@ -35175,16 +35188,16 @@
     </row>
     <row r="684" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A684" s="1" t="s">
-        <v>647</v>
+        <v>37</v>
       </c>
       <c r="B684">
-        <v>5</v>
+        <v>97898</v>
       </c>
       <c r="D684" t="s">
         <v>1421</v>
       </c>
       <c r="E684" t="s">
-        <v>1492</v>
+        <v>1631</v>
       </c>
       <c r="I684">
         <v>1</v>
@@ -35206,16 +35219,16 @@
     </row>
     <row r="686" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A686" s="1" t="s">
-        <v>11</v>
+        <v>472</v>
       </c>
       <c r="B686">
-        <v>7447</v>
+        <v>63</v>
       </c>
       <c r="D686" t="s">
         <v>1421</v>
       </c>
       <c r="E686" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="I686">
         <v>1</v>
@@ -35738,7 +35751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:9" hidden="1">
+    <row r="719" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A719" s="1" t="s">
         <v>679</v>
       </c>
@@ -36218,16 +36231,16 @@
     </row>
     <row r="751" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A751" s="1" t="s">
-        <v>709</v>
+        <v>461</v>
       </c>
       <c r="B751">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D751" t="s">
         <v>1421</v>
       </c>
       <c r="E751" t="s">
-        <v>1494</v>
+        <v>1504</v>
       </c>
       <c r="I751">
         <v>1</v>
@@ -36376,7 +36389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:9" hidden="1">
+    <row r="762" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A762" s="1" t="s">
         <v>719</v>
       </c>
@@ -36393,7 +36406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:9" hidden="1">
+    <row r="763" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A763" s="1" t="s">
         <v>720</v>
       </c>
@@ -36410,7 +36423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:9" hidden="1">
+    <row r="764" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A764" s="1" t="s">
         <v>721</v>
       </c>
@@ -36427,7 +36440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:9" hidden="1">
+    <row r="765" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A765" s="1" t="s">
         <v>722</v>
       </c>
@@ -36444,7 +36457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:9" hidden="1">
+    <row r="766" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A766" s="1" t="s">
         <v>723</v>
       </c>
@@ -36461,7 +36474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:9" hidden="1">
+    <row r="767" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A767" s="1" t="s">
         <v>724</v>
       </c>
@@ -36492,7 +36505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:9" hidden="1">
+    <row r="769" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A769" s="1" t="s">
         <v>726</v>
       </c>
@@ -36509,7 +36522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:9" hidden="1">
+    <row r="770" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A770" s="1" t="s">
         <v>727</v>
       </c>
@@ -36526,7 +36539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:9" hidden="1">
+    <row r="771" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A771" s="1" t="s">
         <v>728</v>
       </c>
@@ -36543,7 +36556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:9" hidden="1">
+    <row r="772" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A772" s="1" t="s">
         <v>729</v>
       </c>
@@ -36560,7 +36573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:9" hidden="1">
+    <row r="773" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A773" s="1" t="s">
         <v>730</v>
       </c>
@@ -36577,7 +36590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:9" hidden="1">
+    <row r="774" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A774" s="1" t="s">
         <v>731</v>
       </c>
@@ -36594,7 +36607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:9" hidden="1">
+    <row r="775" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A775" s="1" t="s">
         <v>732</v>
       </c>
@@ -36611,7 +36624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:9" hidden="1">
+    <row r="776" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A776" s="1" t="s">
         <v>733</v>
       </c>
@@ -36628,7 +36641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:9" hidden="1">
+    <row r="777" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A777" s="1" t="s">
         <v>734</v>
       </c>
@@ -36645,7 +36658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:9" hidden="1">
+    <row r="778" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A778" s="1" t="s">
         <v>735</v>
       </c>
@@ -36662,7 +36675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:9" hidden="1">
+    <row r="779" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A779" s="1" t="s">
         <v>736</v>
       </c>
@@ -36679,7 +36692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:9" hidden="1">
+    <row r="780" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A780" s="1" t="s">
         <v>737</v>
       </c>
@@ -36946,16 +36959,16 @@
     </row>
     <row r="797" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A797" s="1" t="s">
-        <v>754</v>
+        <v>464</v>
       </c>
       <c r="B797">
-        <v>120</v>
+        <v>315</v>
       </c>
       <c r="D797" t="s">
         <v>1421</v>
       </c>
       <c r="E797" t="s">
-        <v>1482</v>
+        <v>1498</v>
       </c>
       <c r="I797">
         <v>1</v>
@@ -37042,16 +37055,16 @@
     </row>
     <row r="803" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A803" s="1" t="s">
-        <v>760</v>
+        <v>465</v>
       </c>
       <c r="B803">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="D803" t="s">
         <v>1421</v>
       </c>
       <c r="E803" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="I803">
         <v>1</v>
@@ -37588,7 +37601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="837" spans="1:9" ht="15" customHeight="1">
       <c r="A837" s="1" t="s">
         <v>793</v>
       </c>
@@ -37599,13 +37612,13 @@
         <v>1413</v>
       </c>
       <c r="E837" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I837">
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="838" spans="1:9" ht="15" customHeight="1">
       <c r="A838" s="1" t="s">
         <v>794</v>
       </c>
@@ -37616,7 +37629,7 @@
         <v>1413</v>
       </c>
       <c r="E838" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I838">
         <v>1</v>
@@ -38013,7 +38026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="862" spans="1:9" ht="15" customHeight="1">
       <c r="A862" s="1" t="s">
         <v>818</v>
       </c>
@@ -38024,7 +38037,7 @@
         <v>1413</v>
       </c>
       <c r="E862" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I862">
         <v>1</v>
@@ -38347,7 +38360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="882" spans="1:9" ht="15" customHeight="1">
       <c r="A882" s="1" t="s">
         <v>838</v>
       </c>
@@ -38358,7 +38371,7 @@
         <v>1413</v>
       </c>
       <c r="E882" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I882">
         <v>1</v>
@@ -38392,7 +38405,7 @@
         <v>1413</v>
       </c>
       <c r="E884" t="s">
-        <v>1602</v>
+        <v>1632</v>
       </c>
       <c r="I884">
         <v>1</v>
@@ -38449,7 +38462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="888" spans="1:9" ht="15" customHeight="1">
       <c r="A888" s="1" t="s">
         <v>844</v>
       </c>
@@ -38460,7 +38473,7 @@
         <v>1413</v>
       </c>
       <c r="E888" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I888">
         <v>1</v>
@@ -38542,7 +38555,7 @@
         <v>1413</v>
       </c>
       <c r="E893" t="s">
-        <v>1602</v>
+        <v>1632</v>
       </c>
       <c r="I893">
         <v>1</v>
@@ -38797,7 +38810,7 @@
         <v>1413</v>
       </c>
       <c r="E908" t="s">
-        <v>1602</v>
+        <v>1632</v>
       </c>
       <c r="I908">
         <v>1</v>
@@ -39165,7 +39178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="931" spans="1:9" ht="15" customHeight="1">
       <c r="A931" s="1" t="s">
         <v>887</v>
       </c>
@@ -39176,7 +39189,7 @@
         <v>1413</v>
       </c>
       <c r="E931" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I931">
         <v>1</v>
@@ -39470,7 +39483,7 @@
         <v>1413</v>
       </c>
       <c r="E949" t="s">
-        <v>1602</v>
+        <v>1632</v>
       </c>
       <c r="I949">
         <v>1</v>
@@ -39541,7 +39554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="954" spans="1:9" ht="15" customHeight="1">
       <c r="A954" s="1" t="s">
         <v>910</v>
       </c>
@@ -39552,7 +39565,7 @@
         <v>1413</v>
       </c>
       <c r="E954" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I954">
         <v>1</v>
@@ -39572,7 +39585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="956" spans="1:9" ht="15" customHeight="1">
       <c r="A956" s="1" t="s">
         <v>912</v>
       </c>
@@ -39583,13 +39596,13 @@
         <v>1413</v>
       </c>
       <c r="E956" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I956">
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="957" spans="1:9" ht="15" customHeight="1">
       <c r="A957" s="1" t="s">
         <v>913</v>
       </c>
@@ -39600,7 +39613,7 @@
         <v>1413</v>
       </c>
       <c r="E957" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I957">
         <v>1</v>
@@ -39657,7 +39670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="961" spans="1:9" ht="15" customHeight="1">
       <c r="A961" s="1" t="s">
         <v>917</v>
       </c>
@@ -39668,7 +39681,7 @@
         <v>1413</v>
       </c>
       <c r="E961" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I961">
         <v>1</v>
@@ -39691,7 +39704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="963" spans="1:9" ht="15" customHeight="1">
       <c r="A963" s="1" t="s">
         <v>919</v>
       </c>
@@ -39702,7 +39715,7 @@
         <v>1413</v>
       </c>
       <c r="E963" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I963">
         <v>1</v>
@@ -39776,7 +39789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:9" ht="15" hidden="1" customHeight="1">
+    <row r="968" spans="1:9" ht="15" customHeight="1">
       <c r="A968" s="1" t="s">
         <v>924</v>
       </c>
@@ -39787,7 +39800,7 @@
         <v>1413</v>
       </c>
       <c r="E968" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="I968">
         <v>1</v>
@@ -39804,7 +39817,7 @@
         <v>1413</v>
       </c>
       <c r="E969" t="s">
-        <v>1602</v>
+        <v>1632</v>
       </c>
       <c r="I969">
         <v>1</v>
@@ -39931,16 +39944,16 @@
     </row>
     <row r="977" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A977" s="1" t="s">
-        <v>933</v>
+        <v>466</v>
       </c>
       <c r="B977">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D977" t="s">
         <v>1421</v>
       </c>
       <c r="E977" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="I977">
         <v>1</v>
@@ -39948,16 +39961,16 @@
     </row>
     <row r="978" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A978" s="1" t="s">
-        <v>934</v>
+        <v>1148</v>
       </c>
       <c r="B978">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D978" t="s">
         <v>1421</v>
       </c>
       <c r="E978" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="I978">
         <v>1</v>
@@ -40013,16 +40026,16 @@
     </row>
     <row r="982" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A982" s="1" t="s">
-        <v>938</v>
+        <v>1284</v>
       </c>
       <c r="B982">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D982" t="s">
         <v>1421</v>
       </c>
       <c r="E982" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="I982">
         <v>1</v>
@@ -40030,16 +40043,16 @@
     </row>
     <row r="983" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A983" s="1" t="s">
-        <v>939</v>
+        <v>454</v>
       </c>
       <c r="B983">
-        <v>338</v>
+        <v>56</v>
       </c>
       <c r="D983" t="s">
         <v>1421</v>
       </c>
       <c r="E983" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="I983">
         <v>1</v>
@@ -40047,16 +40060,16 @@
     </row>
     <row r="984" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A984" s="1" t="s">
-        <v>18</v>
+        <v>467</v>
       </c>
       <c r="B984">
-        <v>37424</v>
+        <v>28</v>
       </c>
       <c r="D984" t="s">
         <v>1421</v>
       </c>
       <c r="E984" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="I984">
         <v>1</v>
@@ -40104,7 +40117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:9" hidden="1">
+    <row r="988" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A988" s="1" t="s">
         <v>943</v>
       </c>
@@ -40461,16 +40474,16 @@
     </row>
     <row r="1011" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1011" s="1" t="s">
-        <v>966</v>
+        <v>606</v>
       </c>
       <c r="B1011">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="D1011" t="s">
         <v>1421</v>
       </c>
       <c r="E1011" t="s">
-        <v>1485</v>
+        <v>1491</v>
       </c>
       <c r="I1011">
         <v>1</v>
@@ -40492,22 +40505,22 @@
     </row>
     <row r="1013" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1013" s="1" t="s">
-        <v>968</v>
+        <v>447</v>
       </c>
       <c r="B1013">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D1013" t="s">
         <v>1421</v>
       </c>
       <c r="E1013" t="s">
-        <v>1490</v>
+        <v>1501</v>
       </c>
       <c r="I1013">
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="1:9" hidden="1">
+    <row r="1014" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1014" s="1" t="s">
         <v>969</v>
       </c>
@@ -40909,7 +40922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1038" spans="1:9" ht="15" customHeight="1">
+    <row r="1038" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1038" s="1" t="s">
         <v>993</v>
       </c>
@@ -40926,7 +40939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1039" spans="1:9" ht="15" customHeight="1">
+    <row r="1039" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1039" s="1" t="s">
         <v>994</v>
       </c>
@@ -41571,7 +41584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" spans="1:9" hidden="1">
+    <row r="1081" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1081" s="1" t="s">
         <v>1030</v>
       </c>
@@ -41624,16 +41637,16 @@
     </row>
     <row r="1084" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1084" s="1" t="s">
-        <v>1033</v>
+        <v>709</v>
       </c>
       <c r="B1084">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D1084" t="s">
         <v>1421</v>
       </c>
       <c r="E1084" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I1084">
         <v>1</v>
@@ -41928,7 +41941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1105" spans="1:9" ht="15" customHeight="1">
+    <row r="1105" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1105" s="1" t="s">
         <v>1054</v>
       </c>
@@ -41945,7 +41958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1106" spans="1:9" ht="15" customHeight="1">
+    <row r="1106" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1106" s="1" t="s">
         <v>1055</v>
       </c>
@@ -41962,7 +41975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1107" spans="1:9" ht="15" customHeight="1">
+    <row r="1107" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1107" s="1" t="s">
         <v>1056</v>
       </c>
@@ -43048,7 +43061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1176" spans="1:9" hidden="1">
+    <row r="1176" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1176" s="1" t="s">
         <v>1114</v>
       </c>
@@ -43582,16 +43595,16 @@
     </row>
     <row r="1211" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1211" s="1" t="s">
-        <v>1148</v>
+        <v>463</v>
       </c>
       <c r="B1211">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D1211" t="s">
         <v>1421</v>
       </c>
       <c r="E1211" t="s">
-        <v>1498</v>
+        <v>1482</v>
       </c>
       <c r="I1211">
         <v>1</v>
@@ -43647,16 +43660,16 @@
     </row>
     <row r="1215" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1215" s="1" t="s">
-        <v>1152</v>
+        <v>754</v>
       </c>
       <c r="B1215">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="D1215" t="s">
         <v>1421</v>
       </c>
       <c r="E1215" t="s">
-        <v>1490</v>
+        <v>1482</v>
       </c>
       <c r="I1215">
         <v>1</v>
@@ -43766,16 +43779,16 @@
     </row>
     <row r="1222" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1222" s="1" t="s">
-        <v>37</v>
+        <v>470</v>
       </c>
       <c r="B1222">
-        <v>97898</v>
+        <v>26</v>
       </c>
       <c r="D1222" t="s">
         <v>1421</v>
       </c>
       <c r="E1222" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="I1222">
         <v>1</v>
@@ -44007,7 +44020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1237" spans="1:9" hidden="1">
+    <row r="1237" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1237" s="1" t="s">
         <v>1173</v>
       </c>
@@ -44702,16 +44715,16 @@
     </row>
     <row r="1282" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1282" s="1" t="s">
-        <v>1218</v>
+        <v>760</v>
       </c>
       <c r="B1282">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D1282" t="s">
         <v>1421</v>
       </c>
       <c r="E1282" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="I1282">
         <v>1</v>
@@ -44719,16 +44732,16 @@
     </row>
     <row r="1283" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1283" s="1" t="s">
-        <v>1219</v>
+        <v>933</v>
       </c>
       <c r="B1283">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="D1283" t="s">
         <v>1421</v>
       </c>
       <c r="E1283" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I1283">
         <v>1</v>
@@ -45194,16 +45207,16 @@
     </row>
     <row r="1315" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1315" s="1" t="s">
-        <v>1251</v>
+        <v>934</v>
       </c>
       <c r="B1315">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="D1315" t="s">
         <v>1421</v>
       </c>
       <c r="E1315" t="s">
-        <v>1485</v>
+        <v>1496</v>
       </c>
       <c r="I1315">
         <v>1</v>
@@ -45539,16 +45552,16 @@
     </row>
     <row r="1339" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1339" s="1" t="s">
-        <v>1275</v>
+        <v>1033</v>
       </c>
       <c r="B1339">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1339" t="s">
         <v>1421</v>
       </c>
       <c r="E1339" t="s">
-        <v>1485</v>
+        <v>1496</v>
       </c>
       <c r="I1339">
         <v>1</v>
@@ -45671,16 +45684,16 @@
     </row>
     <row r="1348" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1348" s="1" t="s">
-        <v>1284</v>
+        <v>11</v>
       </c>
       <c r="B1348">
-        <v>6</v>
+        <v>7447</v>
       </c>
       <c r="D1348" t="s">
         <v>1421</v>
       </c>
       <c r="E1348" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="I1348">
         <v>1</v>
@@ -45921,16 +45934,16 @@
     </row>
     <row r="1365" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1365" s="1" t="s">
-        <v>1301</v>
+        <v>18</v>
       </c>
       <c r="B1365">
-        <v>33</v>
+        <v>37424</v>
       </c>
       <c r="D1365" t="s">
         <v>1421</v>
       </c>
       <c r="E1365" t="s">
-        <v>1485</v>
+        <v>1493</v>
       </c>
       <c r="I1365">
         <v>1</v>
@@ -46100,7 +46113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1376" spans="1:9" hidden="1">
+    <row r="1376" spans="1:9" ht="15" hidden="1" customHeight="1">
       <c r="A1376" s="1" t="s">
         <v>1312</v>
       </c>
@@ -46623,25 +46636,30 @@
       </c>
       <c r="I1408">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1411" spans="5:5">
+      <c r="E1411">
+        <f>LEN(E80)</f>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1408">
     <filterColumn colId="3">
       <filters>
-        <filter val="Бусины"/>
+        <filter val="Образок"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="Православные бусины и шармы для браслетов"/>
+        <filter val="Православный образок (иконка) Божией Матери (Богородицы)"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="8"/>
+    <sortState ref="A22:I1365">
+      <sortCondition ref="E1:E1408"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
